--- a/data/case1/18/P2_2.xlsx
+++ b/data/case1/18/P2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.34334449558886604</v>
+        <v>0.35844298829246668</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995314448142</v>
+        <v>-0.0099999997172801613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995218370543</v>
+        <v>-0.0089999997127687692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999877456702</v>
+        <v>-0.011999999923464344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995309247822</v>
+        <v>-0.0059999997173534325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995207853374</v>
+        <v>-0.005999999709231929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999432682714</v>
+        <v>-0.019999999655000877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999426882908</v>
+        <v>-0.019999999654384482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995066464251</v>
+        <v>-0.0059999997084414503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995009221152</v>
+        <v>-0.0059999997091111368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995099033185</v>
+        <v>-0.0044999997146710768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994998300998</v>
+        <v>-0.0059999997092843316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994944623936</v>
+        <v>-0.0059999997119195569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999456045352</v>
+        <v>-0.011999999690046614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994921087207</v>
+        <v>-0.0059999997148008077</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994915611587</v>
+        <v>0.04472543497619208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0060226315835878452</v>
+        <v>-0.0059999997177850872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994724356824</v>
+        <v>0.013265226269796315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995371399244</v>
+        <v>-0.0089999997203653592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995328788884</v>
+        <v>-0.0089999997128415998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995322411763</v>
+        <v>-0.008999999711184703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995318086334</v>
+        <v>-0.055590928186678212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995148692946</v>
+        <v>-0.0089999997102774287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999297853918</v>
+        <v>-0.041999999578637315</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097052623987939235</v>
+        <v>-0.041999999576296965</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995207320467</v>
+        <v>-0.0059999997082620382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995206352352</v>
+        <v>-0.0059999997065243171</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999999520957644</v>
+        <v>-0.0059999996998394423</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.025782644155889045</v>
+        <v>-0.011999999672175576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.051805835216210294</v>
+        <v>-0.019999999639154886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.041698119318031246</v>
+        <v>-0.014999999655213259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999420086013</v>
+        <v>-0.020999999631610144</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995121717831</v>
+        <v>-0.0059999996891288987</v>
       </c>
     </row>
   </sheetData>
